--- a/customers_anon/data/customer_data.xlsx
+++ b/customers_anon/data/customer_data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>start_date</t>
   </si>
@@ -36,23 +36,77 @@
     <t>cooling_load</t>
   </si>
   <si>
-    <t>staging</t>
-  </si>
-  <si>
     <t>high_stage_capacity</t>
   </si>
   <si>
     <t>name</t>
   </si>
   <si>
-    <t>sampling_rate</t>
+    <t>num_stages</t>
+  </si>
+  <si>
+    <t>customer_04</t>
+  </si>
+  <si>
+    <t>customer_05</t>
+  </si>
+  <si>
+    <t>customer_06</t>
+  </si>
+  <si>
+    <t>customer_07</t>
+  </si>
+  <si>
+    <t>customer_08</t>
+  </si>
+  <si>
+    <t>customer_09</t>
+  </si>
+  <si>
+    <t>customer_10</t>
+  </si>
+  <si>
+    <t>customer_11</t>
+  </si>
+  <si>
+    <t>customer_12</t>
+  </si>
+  <si>
+    <t>customer_13</t>
+  </si>
+  <si>
+    <t>customer_14</t>
+  </si>
+  <si>
+    <t>customer_15</t>
+  </si>
+  <si>
+    <t>customer_16</t>
+  </si>
+  <si>
+    <t>customer_17</t>
+  </si>
+  <si>
+    <t>customer_18</t>
+  </si>
+  <si>
+    <t>customer_19</t>
+  </si>
+  <si>
+    <t>customer_20</t>
+  </si>
+  <si>
+    <t>customer_21</t>
+  </si>
+  <si>
+    <t>customer_22</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -63,6 +117,11 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -85,12 +144,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -392,24 +454,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
     <col min="2" max="2" width="10.21875" customWidth="1"/>
-    <col min="4" max="4" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -417,86 +480,455 @@
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>9</v>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2">
-        <v>42614</v>
+        <v>42557</v>
       </c>
       <c r="C2" s="2">
-        <v>42644</v>
-      </c>
-      <c r="D2" s="4">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1">
+        <v>42647</v>
+      </c>
+      <c r="D2" s="1">
         <v>26.4</v>
       </c>
-      <c r="F2" s="3">
-        <v>18</v>
-      </c>
-      <c r="G2" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E2" s="3">
+        <v>23</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="2">
-        <v>42557</v>
+        <v>42975</v>
       </c>
       <c r="C3" s="2">
-        <v>42647</v>
-      </c>
-      <c r="D3" s="4">
-        <v>3</v>
-      </c>
-      <c r="E3" s="1">
+        <v>42984</v>
+      </c>
+      <c r="D3" s="1">
         <v>26.4</v>
       </c>
-      <c r="F3" s="3">
-        <v>23</v>
-      </c>
-      <c r="G3" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E3" s="3">
+        <v>26</v>
+      </c>
+      <c r="F3" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="2">
-        <v>42975</v>
+        <v>42915</v>
       </c>
       <c r="C4" s="2">
-        <v>42984</v>
-      </c>
-      <c r="D4" s="4">
-        <v>1</v>
-      </c>
-      <c r="E4" s="1">
+        <v>42945</v>
+      </c>
+      <c r="D4" s="1">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="E4" s="3">
+        <v>26</v>
+      </c>
+      <c r="F4" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="2">
+        <v>42956</v>
+      </c>
+      <c r="C5" s="2">
+        <v>42986</v>
+      </c>
+      <c r="D5" s="1">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="E5" s="3">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="F5" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="2">
+        <v>42542</v>
+      </c>
+      <c r="C6" s="2">
+        <v>42632</v>
+      </c>
+      <c r="D6" s="1">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="E6" s="3">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="2">
+        <v>42909</v>
+      </c>
+      <c r="C7" s="2">
+        <v>42939</v>
+      </c>
+      <c r="D7" s="5">
+        <v>19.8</v>
+      </c>
+      <c r="E7" s="3">
+        <v>21.1</v>
+      </c>
+      <c r="F7" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="2">
+        <v>42580</v>
+      </c>
+      <c r="C8" s="2">
+        <v>42654</v>
+      </c>
+      <c r="D8" s="1">
         <v>26.4</v>
       </c>
-      <c r="F4" s="3">
+      <c r="E8" s="3">
+        <v>23.5</v>
+      </c>
+      <c r="F8" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="2">
+        <v>42944</v>
+      </c>
+      <c r="C9" s="2">
+        <v>42954</v>
+      </c>
+      <c r="D9" s="1">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="E9" s="3">
+        <v>17.5</v>
+      </c>
+      <c r="F9" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="4">
+        <v>42872</v>
+      </c>
+      <c r="C10" s="4">
+        <v>42879</v>
+      </c>
+      <c r="D10" s="6">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="E10" s="7">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="F10" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="4">
+        <v>42607</v>
+      </c>
+      <c r="C11" s="4">
+        <v>42653</v>
+      </c>
+      <c r="D11" s="6">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="E11" s="7">
+        <v>19</v>
+      </c>
+      <c r="F11" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="4">
+        <v>42887</v>
+      </c>
+      <c r="C12" s="4">
+        <v>42916</v>
+      </c>
+      <c r="D12" s="7">
+        <v>21.6</v>
+      </c>
+      <c r="E12" s="7">
+        <v>21.6</v>
+      </c>
+      <c r="F12" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="2">
+        <v>42544</v>
+      </c>
+      <c r="C13" s="2">
+        <v>42634</v>
+      </c>
+      <c r="D13" s="1">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="E13" s="3">
+        <v>21</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="2">
+        <v>42558</v>
+      </c>
+      <c r="C14" s="2">
+        <v>42649</v>
+      </c>
+      <c r="D14" s="1">
+        <v>26.4</v>
+      </c>
+      <c r="E14" s="3">
+        <v>20</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="2">
+        <v>42552</v>
+      </c>
+      <c r="C15" s="2">
+        <v>42642</v>
+      </c>
+      <c r="D15" s="1">
+        <v>26.4</v>
+      </c>
+      <c r="E15" s="3">
+        <f>D15</f>
+        <v>26.4</v>
+      </c>
+      <c r="F15" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="2">
+        <v>42888</v>
+      </c>
+      <c r="C16" s="2">
+        <v>42943</v>
+      </c>
+      <c r="D16" s="3">
+        <v>29</v>
+      </c>
+      <c r="E16" s="3">
+        <v>29.5</v>
+      </c>
+      <c r="F16" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="2">
+        <v>42578</v>
+      </c>
+      <c r="C17" s="2">
+        <v>42608</v>
+      </c>
+      <c r="D17" s="1">
+        <v>26.4</v>
+      </c>
+      <c r="E17" s="3">
+        <v>28.5</v>
+      </c>
+      <c r="F17" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="2">
+        <v>42556</v>
+      </c>
+      <c r="C18" s="2">
+        <v>42647</v>
+      </c>
+      <c r="D18" s="1">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="E18" s="3">
+        <v>30</v>
+      </c>
+      <c r="F18" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="2">
+        <v>42552</v>
+      </c>
+      <c r="C19" s="2">
+        <v>42642</v>
+      </c>
+      <c r="D19" s="1">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="E19" s="3">
+        <v>17.3</v>
+      </c>
+      <c r="F19" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="2">
+        <v>42556</v>
+      </c>
+      <c r="C20" s="2">
+        <v>42646</v>
+      </c>
+      <c r="D20" s="1">
+        <v>26.4</v>
+      </c>
+      <c r="E20" s="3">
+        <v>19.5</v>
+      </c>
+      <c r="F20" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="2">
+        <v>42591</v>
+      </c>
+      <c r="C21" s="2">
+        <v>42654</v>
+      </c>
+      <c r="D21" s="1">
+        <v>26.4</v>
+      </c>
+      <c r="E21" s="3">
+        <v>33.200000000000003</v>
+      </c>
+      <c r="F21" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="1">
-        <v>2</v>
+      <c r="B22" s="2">
+        <v>42591</v>
+      </c>
+      <c r="C22" s="2">
+        <v>42656</v>
+      </c>
+      <c r="D22" s="1">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="E22" s="3">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="F22" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" s="2">
+        <v>42557</v>
+      </c>
+      <c r="C23" s="2">
+        <v>42647</v>
+      </c>
+      <c r="D23" s="1">
+        <v>26.4</v>
+      </c>
+      <c r="E23" s="3">
+        <v>26.7</v>
+      </c>
+      <c r="F23" s="1">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
